--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure7.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure7.xlsx
@@ -34,31 +34,19 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>max_glu_serum</t>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
-    <t>admission_source_id</t>
+    <t>admission_type_id</t>
   </si>
   <si>
     <t>race</t>
   </si>
   <si>
-    <t>insulin</t>
-  </si>
-  <si>
-    <t>admission_type_id</t>
-  </si>
-  <si>
-    <t>diag_1</t>
-  </si>
-  <si>
-    <t>discharge_disposition_id</t>
-  </si>
-  <si>
-    <t>max_glu_serum</t>
+    <t>admission_source_id</t>
   </si>
   <si>
     <t>change</t>
@@ -67,7 +55,19 @@
     <t>diabetesmed</t>
   </si>
   <si>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
+  </si>
+  <si>
     <t>a1cresult</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>diag_1</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -79,16 +79,16 @@
     <t>number_outpatient</t>
   </si>
   <si>
-    <t>time_in_hospital</t>
+    <t>num_lab_procedures</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>time_in_hospital</t>
   </si>
   <si>
     <t>number_diagnoses</t>
   </si>
   <si>
-    <t>num_lab_procedures</t>
+    <t>num_medications</t>
   </si>
   <si>
     <t>num_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.350620533005412</v>
+        <v>1.351327849384353</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>1.309141878815471</v>
+        <v>1.322068133347885</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -532,7 +532,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1.297581304083883</v>
+        <v>1.296802706845059</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1.249449436152396</v>
+        <v>1.240066670032552</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1.229482780268493</v>
+        <v>1.226847439242247</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.195228609334394</v>
+        <v>1.206734391738316</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1.190004548757965</v>
+        <v>1.171558372258012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1.169887027624112</v>
+        <v>1.170503626716928</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>27</v>
       </c>
       <c r="E10">
-        <v>1.164809165894952</v>
+        <v>1.169726533244214</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +651,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1.164750571110742</v>
+        <v>1.164802035448993</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1.163037057967172</v>
+        <v>1.164633135037286</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>1.161712392802935</v>
+        <v>1.162928210491088</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1.161394510621746</v>
+        <v>1.161620890210759</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1.145881092548817</v>
+        <v>1.144008636492166</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -787,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1.131521152311755</v>
+        <v>1.133187451483596</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.105895521351919</v>
+        <v>1.088027591493021</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -815,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9823899447447427</v>
+        <v>0.9823221293643269</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9776809774757786</v>
+        <v>0.9792205547724379</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9751435316386932</v>
+        <v>0.9754395784432532</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.974773950192275</v>
+        <v>0.9745756913319906</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9720759612730937</v>
+        <v>0.9660401722286358</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9659987241007937</v>
+        <v>0.9659400688782867</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9657358114877638</v>
+        <v>0.9657406144743854</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9655763269705825</v>
+        <v>0.965524579879931</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.964764959669383</v>
+        <v>0.9651877128379431</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9643319393254352</v>
+        <v>0.9646224223681497</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9641068677651301</v>
+        <v>0.9643495654107279</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9621614684264015</v>
+        <v>0.9606791057783097</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.933286518491503</v>
+        <v>0.9355391054816879</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="E34">
-        <v>0.8973264763701143</v>
+        <v>0.9056782897679296</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="E35">
-        <v>0.8795413995901918</v>
+        <v>0.9016065786419929</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>26</v>
       </c>
       <c r="E36">
-        <v>0.855756913059915</v>
+        <v>0.8538175033368249</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>26</v>
       </c>
       <c r="E37">
-        <v>0.7813259723486403</v>
+        <v>0.7943318552781521</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>26</v>
       </c>
       <c r="E38">
-        <v>0.7750226228998742</v>
+        <v>0.7933470778425574</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>0.7433701677066187</v>
+        <v>0.768424485864545</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -1144,7 +1144,7 @@
         <v>26</v>
       </c>
       <c r="E40">
-        <v>0.735767207381959</v>
+        <v>0.768424485864545</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
@@ -1161,7 +1161,7 @@
         <v>26</v>
       </c>
       <c r="E41">
-        <v>0.7063713605183176</v>
+        <v>0.7308635239791555</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
       </c>
       <c r="E42">
-        <v>0.6898531988020611</v>
+        <v>0.6978631577988531</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.6725927091345493</v>
+        <v>0.6921826880470894</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
       </c>
       <c r="E44">
-        <v>0.6319110157622293</v>
+        <v>0.6376648717860814</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,7 +1220,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -1229,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="E45">
-        <v>0.6319110157622293</v>
+        <v>0.6172133998483676</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,7 +1237,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="E46">
-        <v>0.6151513295748812</v>
+        <v>0.6159153681280233</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,7 +1254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>0.5757414369396149</v>
+        <v>0.5745885459806397</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
       </c>
       <c r="E48">
-        <v>0.564136441902497</v>
+        <v>0.5735889896121866</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.5522817619056285</v>
+        <v>0.5644009099007319</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50">
-        <v>0.5230345723023284</v>
+        <v>0.5627314338711378</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4997652030863718</v>
+        <v>0.5277540672688085</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>0.4771187236136979</v>
+        <v>0.5061832869737835</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,7 +1356,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -1365,7 +1365,7 @@
         <v>26</v>
       </c>
       <c r="E53">
-        <v>0.4706897295977697</v>
+        <v>0.5003292723438869</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>0.4677695596913208</v>
+        <v>0.4975573864656324</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55">
-        <v>0.465908360766626</v>
+        <v>0.4874835676445113</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4424976788687098</v>
+        <v>0.4799223721704707</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,7 +1424,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -1433,7 +1433,7 @@
         <v>26</v>
       </c>
       <c r="E57">
-        <v>0.43915503282684</v>
+        <v>0.4794030825324356</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>0.4367409675974795</v>
+        <v>0.479233838298523</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1461,13 +1461,13 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
         <v>26</v>
       </c>
       <c r="E59">
-        <v>0.4356084133194512</v>
+        <v>0.4729227357386137</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>0.4299137982653371</v>
+        <v>0.4728582628112369</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
         <v>26</v>
       </c>
       <c r="E61">
-        <v>0.4233002902253609</v>
+        <v>0.469644885979795</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>0.4082715798104344</v>
+        <v>0.4600437062282361</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E63">
-        <v>0.4059390873734962</v>
+        <v>0.450184339854536</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>0.4051246922370477</v>
+        <v>0.4352832606801912</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>0.3831610446752755</v>
+        <v>0.4229994910000607</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>0.3783900565953718</v>
+        <v>0.4216552515489029</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
@@ -1603,7 +1603,7 @@
         <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3782603590815929</v>
+        <v>0.4114006944353256</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.3728294619652943</v>
+        <v>0.4014289614145294</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1631,13 +1631,13 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
       </c>
       <c r="E69">
-        <v>0.372808617008815</v>
+        <v>0.3919897885871774</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>0.3668230184812728</v>
+        <v>0.3918080059334081</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3649708058836437</v>
+        <v>0.369283753522703</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.3594958805544136</v>
+        <v>0.3667275415050281</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E73">
-        <v>0.3593785195507501</v>
+        <v>0.3587349907163615</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
       </c>
       <c r="E74">
-        <v>0.3562626515972127</v>
+        <v>0.3576569998726068</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.346920064232662</v>
+        <v>0.3540899391024943</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>26</v>
       </c>
       <c r="E76">
-        <v>0.345834250622541</v>
+        <v>0.3524099135148823</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1767,13 +1767,13 @@
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.3453337077992147</v>
+        <v>0.3436808287911915</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
         <v>28</v>
       </c>
       <c r="E78">
-        <v>0.3385352439202145</v>
+        <v>0.3338037846266259</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
         <v>26</v>
       </c>
       <c r="E79">
-        <v>0.3275005910958659</v>
+        <v>0.3296902366978935</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,7 +1815,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -1824,7 +1824,7 @@
         <v>27</v>
       </c>
       <c r="E80">
-        <v>0.3208366737335408</v>
+        <v>0.3257385141078901</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>0.3159457973776047</v>
+        <v>0.3218428377224256</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,7 +1849,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>20</v>
@@ -1858,7 +1858,7 @@
         <v>26</v>
       </c>
       <c r="E82">
-        <v>0.3083969773719806</v>
+        <v>0.3178955478116183</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E83">
-        <v>0.304724700110022</v>
+        <v>0.3166324566004757</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>0.304724700110022</v>
+        <v>0.3162091626674811</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
         <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>0.3040344960525302</v>
+        <v>0.314657075842332</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1920,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
         <v>28</v>
       </c>
       <c r="E86">
-        <v>0.3025093687683393</v>
+        <v>0.3064349977780687</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E87">
-        <v>0.3015113445777636</v>
+        <v>0.3014694818598553</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>0.297630684629863</v>
+        <v>0.2935181122273612</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1971,13 +1971,13 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2965268469059797</v>
+        <v>0.2899167538069007</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
         <v>27</v>
       </c>
       <c r="E90">
-        <v>0.2948751521203943</v>
+        <v>0.2891476822480471</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2005,13 +2005,13 @@
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2900728522735018</v>
+        <v>0.2883403483401761</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E92">
-        <v>0.286267836809017</v>
+        <v>0.2859084023616532</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s">
         <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2846470287532931</v>
+        <v>0.2851443906545851</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2778789448472482</v>
+        <v>0.283461641937279</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
         <v>27</v>
       </c>
       <c r="E95">
-        <v>0.2771979164137608</v>
+        <v>0.2833737293659078</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
         <v>28</v>
       </c>
       <c r="E96">
-        <v>0.2768435104321413</v>
+        <v>0.2807690365563264</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E97">
-        <v>0.2711275800841177</v>
+        <v>0.2730994090025216</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>0.2655732876822978</v>
+        <v>0.2716072381275557</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2144,10 +2144,10 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E99">
-        <v>0.265047309779797</v>
+        <v>0.2655745659728279</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>0.2649773371649516</v>
+        <v>0.2640291817064772</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2627864280272948</v>
+        <v>0.2633015972082907</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2586127266268721</v>
+        <v>0.257323456375457</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>0.2542717779826332</v>
+        <v>0.2568267212845392</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
@@ -2232,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2534513973006894</v>
+        <v>0.2555779995473345</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
       </c>
       <c r="E105">
-        <v>0.2531179968360099</v>
+        <v>0.2550874920014596</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E106">
-        <v>0.251328660765359</v>
+        <v>0.2548809974290872</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2509596322044836</v>
+        <v>0.2543406524671001</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E108">
-        <v>0.2480820116076941</v>
+        <v>0.2541722675184643</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2479803477567594</v>
+        <v>0.2502548748026434</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2331,10 +2331,10 @@
         <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E110">
-        <v>0.244935241238126</v>
+        <v>0.2465047037000662</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
         <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2400329170315742</v>
+        <v>0.245452304255005</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E112">
-        <v>0.2390457218668786</v>
+        <v>0.2418890876465091</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E113">
-        <v>0.2384010294587521</v>
+        <v>0.2400014485353475</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E114">
-        <v>0.2380979787440759</v>
+        <v>0.2370609698429414</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E115">
-        <v>0.2355730071187912</v>
+        <v>0.2366225225189238</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
         <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2336135583625423</v>
+        <v>0.2348199315843027</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E117">
-        <v>0.2315234263988972</v>
+        <v>0.2343663629787633</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
         <v>29</v>
       </c>
       <c r="E118">
-        <v>0.2305077213846028</v>
+        <v>0.2340255867036226</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119">
-        <v>0.2299133962405712</v>
+        <v>0.2340143380139251</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E120">
-        <v>0.228994269423075</v>
+        <v>0.2334211947542921</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E121">
-        <v>0.2289527349448126</v>
+        <v>0.2306733647503812</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
         <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2286514290971714</v>
+        <v>0.2303898781639168</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D123" t="s">
         <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2269042217128534</v>
+        <v>0.2276540074132671</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2265508231930385</v>
+        <v>0.2276478295868658</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2258596826533403</v>
+        <v>0.227067138315764</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2255392603157195</v>
+        <v>0.2269381309729279</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
         <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2253177851341386</v>
+        <v>0.2259676523918395</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E128">
-        <v>0.2248141652830503</v>
+        <v>0.2259129978899619</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E129">
-        <v>0.2245603491878084</v>
+        <v>0.2246201160754369</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E130">
-        <v>0.2240172724883919</v>
+        <v>0.2246192130830359</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,7 +2682,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
         <v>22</v>
@@ -2691,7 +2691,7 @@
         <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2237426243443194</v>
+        <v>0.2238596874682932</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E132">
-        <v>0.2236067977499791</v>
+        <v>0.2211984189570661</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E133">
-        <v>0.2228088270493856</v>
+        <v>0.2210037287401604</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E134">
-        <v>0.2219797505791595</v>
+        <v>0.2205247688754888</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
         <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2214181152067847</v>
+        <v>0.2204365811994654</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E136">
-        <v>0.2212891567399453</v>
+        <v>0.2199728395278155</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
         <v>29</v>
       </c>
       <c r="E137">
-        <v>0.2203300043982642</v>
+        <v>0.2193288705550681</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E138">
-        <v>0.2200692102477666</v>
+        <v>0.2192756012311061</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E139">
-        <v>0.2197204590854489</v>
+        <v>0.2192415919780793</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E140">
-        <v>0.2197063734122507</v>
+        <v>0.2192415919780793</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>0.2190050996869934</v>
+        <v>0.2192257513584823</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
       </c>
       <c r="E142">
-        <v>0.2189431531098368</v>
+        <v>0.2188981905501342</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>0.2181817215254871</v>
+        <v>0.2184791814275384</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C144" t="s">
         <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E144">
-        <v>0.2180435575515919</v>
+        <v>0.2179635335399656</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
         <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2170690283871722</v>
+        <v>0.2177776306022865</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E146">
-        <v>0.2167187634568593</v>
+        <v>0.2175533965291209</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E147">
-        <v>0.2158889692678151</v>
+        <v>0.2175212842416631</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E148">
-        <v>0.215435802330902</v>
+        <v>0.217485018375906</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
         <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2146302491487724</v>
+        <v>0.2161325241559017</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.212288947365239</v>
+        <v>0.2152660976400866</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E151">
-        <v>0.2108247422582888</v>
+        <v>0.2143586133196327</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E152">
-        <v>0.2068731636557003</v>
+        <v>0.2143116222590309</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D153" t="s">
         <v>26</v>
       </c>
       <c r="E153">
-        <v>0.2068338917791361</v>
+        <v>0.2131592482172511</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3076,13 +3076,13 @@
         <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E154">
-        <v>0.206238647953589</v>
+        <v>0.2124437270166715</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155">
-        <v>0.2057218040473728</v>
+        <v>0.2116191861357453</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E156">
-        <v>0.2047374591559273</v>
+        <v>0.2107942118764323</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D157" t="s">
         <v>29</v>
       </c>
       <c r="E157">
-        <v>0.2041886019101847</v>
+        <v>0.2093858117679779</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
         <v>28</v>
       </c>
       <c r="E158">
-        <v>0.2039701013522625</v>
+        <v>0.2085634036339208</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.2028758188896052</v>
+        <v>0.2079980252688987</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E160">
-        <v>0.2022550005014337</v>
+        <v>0.2078537810723687</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2020801253005653</v>
+        <v>0.2051931446239392</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E162">
-        <v>0.2015061237701893</v>
+        <v>0.2049926030699394</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D163" t="s">
         <v>29</v>
       </c>
       <c r="E163">
-        <v>0.2003163278357294</v>
+        <v>0.2038889613671324</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0.2000963715797646</v>
+        <v>0.2038067008920435</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D165" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E165">
-        <v>0.1998353538702098</v>
+        <v>0.2038067008920435</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E166">
-        <v>0.1996410991327952</v>
+        <v>0.2035363642875363</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E167">
-        <v>0.197908537723925</v>
+        <v>0.2035330903738418</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>0.1974054116989433</v>
+        <v>0.2028412469879545</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
         <v>28</v>
       </c>
       <c r="E169">
-        <v>0.1970858167946654</v>
+        <v>0.2025005296795734</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E170">
-        <v>0.1969132638762734</v>
+        <v>0.2009976536784961</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E171">
-        <v>0.1954562945014238</v>
+        <v>0.2008579934080086</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
       </c>
       <c r="E172">
-        <v>0.1947204741974162</v>
+        <v>0.1983786339804812</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1940583060390647</v>
+        <v>0.1971730273026282</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3416,13 +3416,13 @@
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E174">
-        <v>0.1912024538161922</v>
+        <v>0.1952668825937627</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
         <v>28</v>
       </c>
       <c r="E175">
-        <v>0.1896521051107976</v>
+        <v>0.1944000562274322</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E176">
-        <v>0.1881465679768373</v>
+        <v>0.191726001088785</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
         <v>28</v>
       </c>
       <c r="E177">
-        <v>0.187837641383458</v>
+        <v>0.1907417874160985</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1862457252960632</v>
+        <v>0.1883599702744644</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D179" t="s">
         <v>29</v>
       </c>
       <c r="E179">
-        <v>0.1857748612958187</v>
+        <v>0.1883130663784461</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D180" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E180">
-        <v>0.1853104540211784</v>
+        <v>0.1882767846983631</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.185181633654427</v>
+        <v>0.1856926493734847</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D182" t="s">
         <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1833511522167576</v>
+        <v>0.1856839436832581</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>0.1828844588193922</v>
+        <v>0.1837709954421629</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D184" t="s">
         <v>28</v>
       </c>
       <c r="E184">
-        <v>0.1813209149372799</v>
+        <v>0.1833463787389942</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D185" t="s">
         <v>27</v>
       </c>
       <c r="E185">
-        <v>0.181293179506785</v>
+        <v>0.1826469571104182</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E186">
-        <v>0.1799269979394324</v>
+        <v>0.1818550466040462</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
         <v>27</v>
       </c>
       <c r="E187">
-        <v>0.1795349644238849</v>
+        <v>0.1800481307270243</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E188">
-        <v>0.1783533126507729</v>
+        <v>0.1798422704142621</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E189">
-        <v>0.1781492853011776</v>
+        <v>0.1784634130662014</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1781492853011776</v>
+        <v>0.177674960430499</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D191" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1781492853011776</v>
+        <v>0.1746284105081495</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E192">
-        <v>0.1771578143529076</v>
+        <v>0.174525904885921</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E193">
-        <v>0.1768163972517587</v>
+        <v>0.1743346345335237</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3756,13 +3756,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E194">
-        <v>0.1757621982677492</v>
+        <v>0.1721557703693003</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E195">
-        <v>0.1746277104948046</v>
+        <v>0.1716803504842866</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3790,13 +3790,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1746221872833937</v>
+        <v>0.1711878689387719</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1741211256864933</v>
+        <v>0.1690948986225536</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1737442799919811</v>
+        <v>0.1685633946132141</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E199">
-        <v>0.1735124811303689</v>
+        <v>0.1684319142626557</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E200">
-        <v>0.1714431358754234</v>
+        <v>0.1682860034765015</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D201" t="s">
         <v>29</v>
       </c>
       <c r="E201">
-        <v>0.1699861380233158</v>
+        <v>0.167176224701439</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3892,13 +3892,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E202">
-        <v>0.1654847633511302</v>
+        <v>0.1655516764228944</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D203" t="s">
         <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1646212884833436</v>
+        <v>0.1611856212200415</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D204" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1640825308284731</v>
+        <v>0.1598716768026334</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D205" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E205">
-        <v>0.163928623890409</v>
+        <v>0.1583848306881082</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E206">
-        <v>0.1638426584318124</v>
+        <v>0.15809741819872</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1601884998233612</v>
+        <v>0.1573180403180091</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D208" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1594912954514988</v>
+        <v>0.1537257572933371</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D209" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E209">
-        <v>0.1588490255482114</v>
+        <v>0.1524098025586612</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
         <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1555871900509884</v>
+        <v>0.1520520874424517</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D211" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E211">
-        <v>0.1539614591839165</v>
+        <v>0.151145799465601</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D212" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E212">
-        <v>0.1532549624598529</v>
+        <v>0.1509714362252385</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C213" t="s">
         <v>19</v>
       </c>
       <c r="D213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E213">
-        <v>0.1532365018596038</v>
+        <v>0.1505441507013684</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.1528667766722159</v>
+        <v>0.1500610261434707</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
         <v>20</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E215">
-        <v>0.1525264545262566</v>
+        <v>0.1499975182086617</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E216">
-        <v>0.1521765913957621</v>
+        <v>0.14933585265939</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E217">
-        <v>0.1516879389210151</v>
+        <v>0.1479623487399461</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1512646162281696</v>
+        <v>0.1472045707449182</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E219">
-        <v>0.1505224214942231</v>
+        <v>0.146891369244398</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1497719377699712</v>
+        <v>0.1460058798526087</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E221">
-        <v>0.1496446812873258</v>
+        <v>0.1458978956517298</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E222">
-        <v>0.1495181260340798</v>
+        <v>0.1458306306866147</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E223">
-        <v>0.1488571955833405</v>
+        <v>0.1458029608799511</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1474606744419977</v>
+        <v>0.1455177329509193</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1472540714022091</v>
+        <v>0.1452514726780542</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.1472036032493393</v>
+        <v>0.144076818626253</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D227" t="s">
         <v>29</v>
       </c>
       <c r="E227">
-        <v>0.1465219026816654</v>
+        <v>0.1436497095776162</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1450787290962595</v>
+        <v>0.1417259068153263</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
       </c>
       <c r="E229">
-        <v>0.144899358853835</v>
+        <v>0.1413185193080179</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D230" t="s">
         <v>29</v>
       </c>
       <c r="E230">
-        <v>0.1446714040728153</v>
+        <v>0.1406764982529993</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
         <v>27</v>
       </c>
       <c r="E231">
-        <v>0.1436085373744791</v>
+        <v>0.1399351654241153</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1428224477399687</v>
+        <v>0.1392783351205622</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E233">
-        <v>0.1422716032547981</v>
+        <v>0.1384924398766311</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C234" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1422221001421727</v>
+        <v>0.1384859927568512</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4453,13 +4453,13 @@
         <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E235">
-        <v>0.1416857956199099</v>
+        <v>0.1381356373582548</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D236" t="s">
         <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1411951666332003</v>
+        <v>0.1380177144065251</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C237" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1411686311084686</v>
+        <v>0.1378017059173867</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E238">
-        <v>0.1411450162732633</v>
+        <v>0.1377179350654895</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D239" t="s">
         <v>29</v>
       </c>
       <c r="E239">
-        <v>0.1411056368627104</v>
+        <v>0.1376112734912401</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4538,13 +4538,13 @@
         <v>17</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D240" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1404055618646992</v>
+        <v>0.1369570840165835</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4558,10 +4558,10 @@
         <v>25</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E241">
-        <v>0.1401083707496751</v>
+        <v>0.1366959035918973</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1400385405211085</v>
+        <v>0.136404841836327</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D243" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E243">
-        <v>0.1397911601922194</v>
+        <v>0.13593880767135</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C244" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D244" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1397646728481934</v>
+        <v>0.1354820796295146</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D245" t="s">
         <v>28</v>
       </c>
       <c r="E245">
-        <v>0.1396013452030848</v>
+        <v>0.1353390122300372</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D246" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E246">
-        <v>0.139387664806125</v>
+        <v>0.1352815560971833</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
       </c>
       <c r="E247">
-        <v>0.1389309839440271</v>
+        <v>0.1350921381202636</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C248" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
       </c>
       <c r="E248">
-        <v>0.1386313258253158</v>
+        <v>0.1343602362746057</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E249">
-        <v>0.138025789749201</v>
+        <v>0.1337253488752966</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C250" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
       </c>
       <c r="E250">
-        <v>0.1376748805331011</v>
+        <v>0.1336816503811758</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D251" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E251">
-        <v>0.1372260656554835</v>
+        <v>0.1331690284855426</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D252" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E252">
-        <v>0.1370428952532565</v>
+        <v>0.1325091574290439</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C253" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D253" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1370206527201044</v>
+        <v>0.1322664035029936</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D254" t="s">
         <v>27</v>
       </c>
       <c r="E254">
-        <v>0.1369637917208554</v>
+        <v>0.131881010693199</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D255" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E255">
-        <v>0.1368901380758624</v>
+        <v>0.1315099235828897</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D256" t="s">
         <v>28</v>
       </c>
       <c r="E256">
-        <v>0.1367821382839021</v>
+        <v>0.1311182321058889</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>23</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E257">
-        <v>0.136644941908333</v>
+        <v>0.130899280496823</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,7 +4841,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C258" t="s">
         <v>23</v>
@@ -4850,7 +4850,7 @@
         <v>27</v>
       </c>
       <c r="E258">
-        <v>0.1361954941826519</v>
+        <v>0.1308637316209866</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C259" t="s">
         <v>22</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E259">
-        <v>0.1356984994429695</v>
+        <v>0.1300258433749115</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D260" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E260">
-        <v>0.134827829630786</v>
+        <v>0.1290784713670504</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4895,13 +4895,13 @@
         <v>6</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D261" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E261">
-        <v>0.134818281362653</v>
+        <v>0.1288199980045204</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C262" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D262" t="s">
         <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1339671689922516</v>
+        <v>0.1285258025613247</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4929,13 +4929,13 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D263" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E263">
-        <v>0.1333964624748767</v>
+        <v>0.1277626234169976</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1327769375151377</v>
+        <v>0.1272402121659907</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,7 +4960,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C265" t="s">
         <v>24</v>
@@ -4969,7 +4969,7 @@
         <v>27</v>
       </c>
       <c r="E265">
-        <v>0.1303993714543732</v>
+        <v>0.1269324228157276</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C266" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D266" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E266">
-        <v>0.1303511028517437</v>
+        <v>0.1260737220588066</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1297468159789945</v>
+        <v>0.1259657321661552</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C268" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E268">
-        <v>0.1296793050318797</v>
+        <v>0.1257404102535092</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C269" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D269" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E269">
-        <v>0.1277296966928079</v>
+        <v>0.1256902664467877</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D270" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E270">
-        <v>0.1275748388143509</v>
+        <v>0.1250578376014109</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D271" t="s">
         <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1266266300713157</v>
+        <v>0.124951988542962</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D272" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E272">
-        <v>0.1265175300780359</v>
+        <v>0.124634142744512</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C273" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E273">
-        <v>0.1264684064876653</v>
+        <v>0.1243135395720254</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C274" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D274" t="s">
         <v>28</v>
       </c>
       <c r="E274">
-        <v>0.1254896141268142</v>
+        <v>0.1242997741231934</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
         <v>28</v>
       </c>
       <c r="E275">
-        <v>0.1248265972644882</v>
+        <v>0.1240050382646064</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C276" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D276" t="s">
         <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1241071222615329</v>
+        <v>0.1239154387681231</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5167,13 +5167,13 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D277" t="s">
         <v>29</v>
       </c>
       <c r="E277">
-        <v>0.1239058230851424</v>
+        <v>0.1235622084098263</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C278" t="s">
         <v>22</v>
       </c>
       <c r="D278" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E278">
-        <v>0.1237538720349573</v>
+        <v>0.1234849783139601</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D279" t="s">
         <v>29</v>
       </c>
       <c r="E279">
-        <v>0.1235005667394126</v>
+        <v>0.1232430976364419</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D280" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E280">
-        <v>0.122445696162994</v>
+        <v>0.123054503241192</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C281" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D281" t="s">
         <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1223803685944532</v>
+        <v>0.1228176642039115</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C282" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D282" t="s">
         <v>28</v>
       </c>
       <c r="E282">
-        <v>0.1205342762224692</v>
+        <v>0.122421703947197</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D283" t="s">
         <v>27</v>
       </c>
       <c r="E283">
-        <v>0.1202411049411126</v>
+        <v>0.1217074010542252</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C284" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D284" t="s">
         <v>27</v>
       </c>
       <c r="E284">
-        <v>0.1191461567903772</v>
+        <v>0.1216458831304704</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D285" t="s">
         <v>27</v>
       </c>
       <c r="E285">
-        <v>0.1191393526195504</v>
+        <v>0.1215085588692128</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D286" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1182624791978166</v>
+        <v>0.121190239995789</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D287" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E287">
-        <v>0.1176737400711381</v>
+        <v>0.1211305652330782</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D288" t="s">
         <v>27</v>
       </c>
       <c r="E288">
-        <v>0.1174748384210587</v>
+        <v>0.1208994297166739</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D289" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E289">
-        <v>0.1170724800346457</v>
+        <v>0.1191586461884344</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C290" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E290">
-        <v>0.1169901537968144</v>
+        <v>0.1191586461884344</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5405,13 +5405,13 @@
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D291" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E291">
-        <v>0.1164710972899146</v>
+        <v>0.1189289351643191</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C292" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D292" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E292">
-        <v>0.1163926802578238</v>
+        <v>0.1181649244426861</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C293" t="s">
         <v>24</v>
       </c>
       <c r="D293" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E293">
-        <v>0.1161606657104646</v>
+        <v>0.1180283070381198</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C294" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D294" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E294">
-        <v>0.1160559199273581</v>
+        <v>0.1178753694130067</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D295" t="s">
         <v>27</v>
       </c>
       <c r="E295">
-        <v>0.1157087823871868</v>
+        <v>0.117428751792442</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,7 +5487,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C296" t="s">
         <v>21</v>
@@ -5496,7 +5496,7 @@
         <v>27</v>
       </c>
       <c r="E296">
-        <v>0.1153758435279774</v>
+        <v>0.1165182853681149</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E297">
-        <v>0.1135756858250999</v>
+        <v>0.1155801156032902</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C298" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D298" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E298">
-        <v>0.1135605170333236</v>
+        <v>0.1155278960878563</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C299" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E299">
-        <v>0.1131796372903809</v>
+        <v>0.115402114043241</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C300" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D300" t="s">
         <v>29</v>
       </c>
       <c r="E300">
-        <v>0.1129300311482307</v>
+        <v>0.1148971776609685</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C301" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E301">
-        <v>0.1125923254618521</v>
+        <v>0.1148722832265902</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C302" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E302">
-        <v>0.11219911783886</v>
+        <v>0.1135922102745211</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C303" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D303" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E303">
-        <v>0.1117475390669186</v>
+        <v>0.1107404251973363</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C304" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E304">
-        <v>0.1117176150464649</v>
+        <v>0.1103374312583771</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C305" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D305" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E305">
-        <v>0.1115008180796557</v>
+        <v>0.10987522827989</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C306" t="s">
         <v>22</v>
       </c>
       <c r="D306" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E306">
-        <v>0.1115008180796557</v>
+        <v>0.1097925540087767</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D307" t="s">
         <v>28</v>
       </c>
       <c r="E307">
-        <v>0.1114630921362841</v>
+        <v>0.1096966456139716</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D308" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E308">
-        <v>0.1111597044181542</v>
+        <v>0.1096094347396581</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C309" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E309">
-        <v>0.1111454450458669</v>
+        <v>0.1094403815021332</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C310" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D310" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E310">
-        <v>0.1107845477576253</v>
+        <v>0.10848543142906</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C311" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D311" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E311">
-        <v>0.110408537003818</v>
+        <v>0.1080600683504026</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D312" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E312">
-        <v>0.1102425718895759</v>
+        <v>0.1075360979237527</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E313">
-        <v>0.1102194973491893</v>
+        <v>0.1046472205687412</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C314" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D314" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E314">
-        <v>0.1098884810809025</v>
+        <v>0.1037509691362988</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C315" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D315" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E315">
-        <v>0.1095198836677875</v>
+        <v>0.1036340420325671</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D316" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E316">
-        <v>0.1092591839891081</v>
+        <v>0.1028776815987144</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C317" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D317" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E317">
-        <v>0.1090773994793429</v>
+        <v>0.1026614505645986</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5864,13 +5864,13 @@
         <v>17</v>
       </c>
       <c r="C318" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D318" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E318">
-        <v>0.1087153517337321</v>
+        <v>0.1025180108078269</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C319" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D319" t="s">
         <v>28</v>
       </c>
       <c r="E319">
-        <v>0.108119069602283</v>
+        <v>0.1007840435786346</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D320" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E320">
-        <v>0.1074358144452107</v>
+        <v>0.09920161220901237</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C321" t="s">
         <v>21</v>
       </c>
       <c r="D321" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E321">
-        <v>0.1065899976211984</v>
+        <v>0.09891984386368186</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D322" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E322">
-        <v>0.1063142656533742</v>
+        <v>0.0987826860099744</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C323" t="s">
         <v>25</v>
       </c>
       <c r="D323" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E323">
-        <v>0.1054265812500087</v>
+        <v>0.09839269802956319</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C324" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D324" t="s">
         <v>27</v>
       </c>
       <c r="E324">
-        <v>0.1048961763927499</v>
+        <v>0.09684003182442957</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C325" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D325" t="s">
         <v>27</v>
       </c>
       <c r="E325">
-        <v>0.1048707500289256</v>
+        <v>0.09670969138121358</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,7 +5997,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C326" t="s">
         <v>22</v>
@@ -6006,7 +6006,7 @@
         <v>27</v>
       </c>
       <c r="E326">
-        <v>0.1038887757066188</v>
+        <v>0.09562520958976631</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D327" t="s">
         <v>28</v>
       </c>
       <c r="E327">
-        <v>0.1035912564762153</v>
+        <v>0.09561532691760222</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C328" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D328" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E328">
-        <v>0.1023741380498162</v>
+        <v>0.09494627264175239</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C329" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D329" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E329">
-        <v>0.101936020852182</v>
+        <v>0.09427481563639968</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D330" t="s">
         <v>27</v>
       </c>
       <c r="E330">
-        <v>0.09967522973137444</v>
+        <v>0.09320572081156518</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C331" t="s">
         <v>24</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E331">
-        <v>0.09893614034429847</v>
+        <v>0.09247033641336085</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D332" t="s">
         <v>27</v>
       </c>
       <c r="E332">
-        <v>0.09858046915304718</v>
+        <v>0.09137776805735599</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,7 +6116,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C333" t="s">
         <v>22</v>
@@ -6125,7 +6125,7 @@
         <v>27</v>
       </c>
       <c r="E333">
-        <v>0.09856396811608023</v>
+        <v>0.08970967883937186</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D334" t="s">
         <v>28</v>
       </c>
       <c r="E334">
-        <v>0.0979960272475897</v>
+        <v>0.08640722838602018</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6153,13 +6153,13 @@
         <v>9</v>
       </c>
       <c r="C335" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D335" t="s">
         <v>28</v>
       </c>
       <c r="E335">
-        <v>0.09678094681799373</v>
+        <v>0.08594976325383412</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E336">
-        <v>0.09602493254834681</v>
+        <v>0.0857875024480366</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C337" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D337" t="s">
         <v>28</v>
       </c>
       <c r="E337">
-        <v>0.09573064336828779</v>
+        <v>0.08523228057860642</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6204,13 +6204,13 @@
         <v>8</v>
       </c>
       <c r="C338" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D338" t="s">
         <v>27</v>
       </c>
       <c r="E338">
-        <v>0.09496526479364396</v>
+        <v>0.08491284939104966</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C339" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D339" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E339">
-        <v>0.09437076895846717</v>
+        <v>0.08419161774434784</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D340" t="s">
         <v>27</v>
       </c>
       <c r="E340">
-        <v>0.09273176912615294</v>
+        <v>0.08159600504381215</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,7 +6252,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C341" t="s">
         <v>24</v>
@@ -6261,7 +6261,7 @@
         <v>28</v>
       </c>
       <c r="E341">
-        <v>0.08878504827335774</v>
+        <v>0.0802350966924439</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C342" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D342" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E342">
-        <v>0.08831030558005366</v>
+        <v>0.07937688150808135</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C343" t="s">
         <v>22</v>
       </c>
       <c r="D343" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E343">
-        <v>0.0876895292488665</v>
+        <v>0.07887429063939357</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C344" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D344" t="s">
         <v>29</v>
       </c>
       <c r="E344">
-        <v>0.08757235261075919</v>
+        <v>0.0780771606256938</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6326,10 +6326,10 @@
         <v>25</v>
       </c>
       <c r="D345" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E345">
-        <v>0.08703776803122583</v>
+        <v>0.07758857171605475</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C346" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D346" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E346">
-        <v>0.08652140615439391</v>
+        <v>0.07670291065535055</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C347" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E347">
-        <v>0.08345368606304969</v>
+        <v>0.07451290788198618</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6377,10 +6377,10 @@
         <v>22</v>
       </c>
       <c r="D348" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E348">
-        <v>0.08290683108170697</v>
+        <v>0.07445958704845443</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C349" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
         <v>28</v>
       </c>
       <c r="E349">
-        <v>0.08168340836185263</v>
+        <v>0.07416657290727108</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D350" t="s">
         <v>27</v>
       </c>
       <c r="E350">
-        <v>0.08061223364323072</v>
+        <v>0.07384197471310414</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C351" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D351" t="s">
         <v>27</v>
       </c>
       <c r="E351">
-        <v>0.07976076229377842</v>
+        <v>0.07352363442123851</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C352" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D352" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E352">
-        <v>0.07916597835789528</v>
+        <v>0.07332807700746484</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C353" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E353">
-        <v>0.07840455519209297</v>
+        <v>0.07279177154887394</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D354" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E354">
-        <v>0.07838068546940662</v>
+        <v>0.07267028270150484</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C355" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D355" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E355">
-        <v>0.0778606611309804</v>
+        <v>0.07208152071601993</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D356" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E356">
-        <v>0.07785666818163435</v>
+        <v>0.06795733060498327</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D357" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E357">
-        <v>0.07659489350625245</v>
+        <v>0.06655066626660912</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,7 +6541,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C358" t="s">
         <v>22</v>
@@ -6550,7 +6550,7 @@
         <v>27</v>
       </c>
       <c r="E358">
-        <v>0.07648367379746676</v>
+        <v>0.06629117789696258</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C359" t="s">
         <v>25</v>
       </c>
       <c r="D359" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E359">
-        <v>0.07632956289797738</v>
+        <v>0.06614537020975272</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D360" t="s">
         <v>27</v>
       </c>
       <c r="E360">
-        <v>0.07568585092894028</v>
+        <v>0.06510094152695453</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6595,13 +6595,13 @@
         <v>14</v>
       </c>
       <c r="C361" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D361" t="s">
         <v>28</v>
       </c>
       <c r="E361">
-        <v>0.07531970929266095</v>
+        <v>0.06491411405476133</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6612,13 +6612,13 @@
         <v>16</v>
       </c>
       <c r="C362" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D362" t="s">
         <v>27</v>
       </c>
       <c r="E362">
-        <v>0.07527435541794913</v>
+        <v>0.06268282069821274</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,7 +6626,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C363" t="s">
         <v>20</v>
@@ -6635,7 +6635,7 @@
         <v>27</v>
       </c>
       <c r="E363">
-        <v>0.07453742725756768</v>
+        <v>0.06260583997079469</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D364" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E364">
-        <v>0.07411670191728287</v>
+        <v>0.06250099308472773</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C365" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D365" t="s">
         <v>27</v>
       </c>
       <c r="E365">
-        <v>0.07270309392076299</v>
+        <v>0.05923300677545287</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C366" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D366" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E366">
-        <v>0.07262848432644849</v>
+        <v>0.05592318428389113</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D367" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E367">
-        <v>0.07170775173437838</v>
+        <v>0.05559578697190529</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C368" t="s">
         <v>21</v>
       </c>
       <c r="D368" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E368">
-        <v>0.06896803716071637</v>
+        <v>0.05559578697190529</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C369" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D369" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E369">
-        <v>0.06883375570816518</v>
+        <v>0.05559578697190529</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C370" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D370" t="s">
         <v>27</v>
       </c>
       <c r="E370">
-        <v>0.06671441988955087</v>
+        <v>0.05243520251654944</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6771,7 +6771,7 @@
         <v>27</v>
       </c>
       <c r="E371">
-        <v>0.06611985126555857</v>
+        <v>0.04985671329981619</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D372" t="s">
         <v>27</v>
       </c>
       <c r="E372">
-        <v>0.06600070797959016</v>
+        <v>0.04380620464038909</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D373" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E373">
-        <v>0.06430727631470583</v>
+        <v>0.04132708200062624</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C374" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D374" t="s">
         <v>27</v>
       </c>
       <c r="E374">
-        <v>0.05776168514256626</v>
+        <v>0.03344067115739609</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C375" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D375" t="s">
         <v>27</v>
       </c>
       <c r="E375">
-        <v>0.05299929175262302</v>
+        <v>0.03151840393333844</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D376" t="s">
         <v>27</v>
       </c>
       <c r="E376">
-        <v>0.05181458834406139</v>
+        <v>0.03009623566313731</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C377" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D377" t="s">
         <v>27</v>
       </c>
       <c r="E377">
-        <v>0.04698386366379657</v>
+        <v>0.02666018204231991</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C378" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D378" t="s">
         <v>27</v>
       </c>
       <c r="E378">
-        <v>0.04495399548393966</v>
+        <v>0.02453131999022056</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6901,13 +6901,13 @@
         <v>11</v>
       </c>
       <c r="C379" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D379" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E379">
-        <v>0.0374997171828881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D380" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E380">
-        <v>0.0361042246056205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C381" t="s">
         <v>23</v>
       </c>
       <c r="D381" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E381">
-        <v>0.03484185583643507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C382" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D382" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E382">
-        <v>0.01778990544527119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D383" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E383">
-        <v>0.01050350805953002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C384" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D384" t="s">
         <v>26</v>
@@ -7000,10 +7000,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C385" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D385" t="s">
         <v>26</v>
@@ -7017,10 +7017,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C386" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D386" t="s">
         <v>26</v>
@@ -7034,7 +7034,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C387" t="s">
         <v>23</v>
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C388" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D388" t="s">
         <v>26</v>
@@ -7068,7 +7068,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C389" t="s">
         <v>23</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C390" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D390" t="s">
         <v>26</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C391" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D391" t="s">
         <v>26</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C392" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D392" t="s">
         <v>26</v>
@@ -7139,7 +7139,7 @@
         <v>8</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D393" t="s">
         <v>26</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C394" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D394" t="s">
         <v>26</v>
@@ -7170,10 +7170,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C395" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D395" t="s">
         <v>26</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C396" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D396" t="s">
         <v>26</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C397" t="s">
         <v>25</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D398" t="s">
         <v>26</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C399" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D399" t="s">
         <v>26</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C400" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D400" t="s">
         <v>26</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C401" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D401" t="s">
         <v>26</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C402" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D402" t="s">
         <v>26</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C403" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D403" t="s">
         <v>26</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C404" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D404" t="s">
         <v>26</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C405" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D405" t="s">
         <v>26</v>
@@ -7357,7 +7357,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C406" t="s">
         <v>25</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C407" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D407" t="s">
         <v>26</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C408" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D408" t="s">
         <v>26</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C409" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D409" t="s">
         <v>26</v>
@@ -7428,7 +7428,7 @@
         <v>10</v>
       </c>
       <c r="C410" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D410" t="s">
         <v>26</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C411" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D411" t="s">
         <v>26</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C412" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D412" t="s">
         <v>26</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C413" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D413" t="s">
         <v>26</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C414" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D414" t="s">
         <v>26</v>
@@ -7513,7 +7513,7 @@
         <v>11</v>
       </c>
       <c r="C415" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D415" t="s">
         <v>26</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C416" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D416" t="s">
         <v>26</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D417" t="s">
         <v>26</v>
